--- a/assets/downloads/simpel_forskudsberegner.xlsx
+++ b/assets/downloads/simpel_forskudsberegner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magnus\Documents\GitHub\minforskudsopgoerelse.github.io\assets\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46C69DE-71FE-4ED3-929A-A8AAD480C0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841485C1-91B7-4E79-A7C0-5890FFF79757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Grundløn brutto:</t>
   </si>
   <si>
-    <t>Feriepenges:</t>
-  </si>
-  <si>
     <t>Sats (fx 12,5%):</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>Feriepenge af grundløn:</t>
   </si>
   <si>
-    <t>Tal indstastes kun i hvide felter</t>
-  </si>
-  <si>
     <t>[Type] (fx 5%):</t>
   </si>
   <si>
@@ -99,7 +93,13 @@
     <t>Fradrag pr. måned:</t>
   </si>
   <si>
-    <t>Antal lånudbetalings måneder</t>
+    <t>Tal indtastes kun i de hvide felter</t>
+  </si>
+  <si>
+    <t>Måneder hvor løn udbetales</t>
+  </si>
+  <si>
+    <t>Feriepenge:</t>
   </si>
 </sst>
 </file>
@@ -497,7 +497,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -523,12 +523,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>7000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <v>12</v>
@@ -540,17 +540,17 @@
       </c>
       <c r="B5" s="6">
         <f>B3*B2</f>
-        <v>84000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="5">
         <v>12.5</v>
@@ -558,22 +558,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6">
         <f>B5*(B8/100)</f>
-        <v>10500</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="6">
         <f>$B$5*(B12/100)</f>
@@ -594,7 +594,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="10">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="6">
         <f>$B$5*(B15/100)</f>
@@ -615,7 +615,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="10">
         <v>0</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" s="6">
         <f>$B$5*(B18/100)</f>
@@ -636,13 +636,13 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7">
         <v>8</v>
@@ -650,30 +650,30 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" s="6">
         <f>B5*B22/100</f>
-        <v>6720</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25" s="13">
         <f>(B5+B9+B13+B16+B19)*1.05</f>
-        <v>99225</v>
+        <v>141750</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="14">
         <v>4647</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2">
         <v>41</v>
@@ -689,11 +689,11 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" s="6">
         <f>(B25*1.05^-1)-((B25*1.05^-1)-B23-B3*B28)*(1-(B29/100))</f>
-        <v>75610.559999999998</v>
+        <v>93914.76</v>
       </c>
     </row>
   </sheetData>
